--- a/CA_data/Enrollment/EnrEthYr/2021-22/11+GLENN_char.xlsx
+++ b/CA_data/Enrollment/EnrEthYr/2021-22/11+GLENN_char.xlsx
@@ -49,6 +49,9 @@
     <t>Not Reported</t>
   </si>
   <si>
+    <t>2022-23</t>
+  </si>
+  <si>
     <t>2021-22</t>
   </si>
   <si>
@@ -67,7 +70,7 @@
     <t>2016-17</t>
   </si>
   <si>
-    <t>2015-16</t>
+    <t>0.6%</t>
   </si>
   <si>
     <t>1.1%</t>
@@ -88,7 +91,7 @@
     <t>7.2%</t>
   </si>
   <si>
-    <t>9.8%</t>
+    <t>1.2%</t>
   </si>
   <si>
     <t>1.7%</t>
@@ -109,12 +112,6 @@
     <t>2.5%</t>
   </si>
   <si>
-    <t>2.3%</t>
-  </si>
-  <si>
-    <t>0.6%</t>
-  </si>
-  <si>
     <t>1.3%</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
     <t>0.1%</t>
   </si>
   <si>
+    <t>26.7%</t>
+  </si>
+  <si>
     <t>24.9%</t>
   </si>
   <si>
@@ -142,7 +142,7 @@
     <t>48.4%</t>
   </si>
   <si>
-    <t>41.1%</t>
+    <t>61.0%</t>
   </si>
   <si>
     <t>63.4%</t>
@@ -163,7 +163,7 @@
     <t>37.5%</t>
   </si>
   <si>
-    <t>39.0%</t>
+    <t>6.0%</t>
   </si>
   <si>
     <t>5.7%</t>
@@ -181,7 +181,7 @@
     <t>2.2%</t>
   </si>
   <si>
-    <t>2.8%</t>
+    <t>3.6%</t>
   </si>
   <si>
     <t>2.6%</t>
@@ -591,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>985</v>
+        <v>1159</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -600,25 +600,25 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>931</v>
+        <v>985</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -635,25 +635,25 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>806</v>
+        <v>931</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -670,25 +670,25 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -696,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>363</v>
+        <v>806</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -705,25 +705,25 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -731,7 +731,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -740,25 +740,25 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -766,7 +766,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>405</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -775,25 +775,25 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -801,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -810,25 +810,25 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" t="s">
-        <v>55</v>
-      </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
